--- a/batches/22/day_04/day_04.xlsx
+++ b/batches/22/day_04/day_04.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F35301-3341-3E4E-BB59-67722165DC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75AE6B4-DB5F-7F47-BE2E-3F494CC50C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F93A48CE-815E-9F4B-AC5B-3E3CDAA546EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{F93A48CE-815E-9F4B-AC5B-3E3CDAA546EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recap" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda" sheetId="2" r:id="rId2"/>
+    <sheet name="date_time_types" sheetId="3" r:id="rId3"/>
+    <sheet name="boolean" sheetId="4" r:id="rId4"/>
+    <sheet name="advance_data_types" sheetId="5" r:id="rId5"/>
+    <sheet name="constraints" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +40,404 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+  <si>
+    <t>🔄 WHAT WE'VE LEARNED SO FAR:</t>
+  </si>
+  <si>
+    <t>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</t>
+  </si>
+  <si>
+    <t>📅 Day 1: Foundation Day</t>
+  </si>
+  <si>
+    <t>✓ Understood SQL components (DDL, DML, DCL, TCL, DQL)</t>
+  </si>
+  <si>
+    <t>✓ Learned Database vs Schema concept</t>
+  </si>
+  <si>
+    <t>✓ Explored database objects (Table, View, Index)</t>
+  </si>
+  <si>
+    <t>✓ Understood DBMS vs RDBMS differences</t>
+  </si>
+  <si>
+    <t>📅 Day 2: Building RetailMart</t>
+  </si>
+  <si>
+    <t>✓ Created RetailMart database</t>
+  </si>
+  <si>
+    <t>✓ Mastered DDL commands (CREATE DATABASE, CREATE SCHEMA, CREATE TABLE)</t>
+  </si>
+  <si>
+    <t>✓ Learned DROP and ALTER commands</t>
+  </si>
+  <si>
+    <t>✓ Used SELECT version() for system queries</t>
+  </si>
+  <si>
+    <t>✓ Created all 8 schemas (core, customers, sales, products, stores, hr, finance, marketing)</t>
+  </si>
+  <si>
+    <t>✓ Created table structures</t>
+  </si>
+  <si>
+    <t>📅 Day 3: Data Types (Partial)</t>
+  </si>
+  <si>
+    <t>✓ Numeric types: INT, SMALLINT, BIGINT, DECIMAL, NUMERIC, REAL, DOUBLE PRECISION, SERIAL</t>
+  </si>
+  <si>
+    <t>✓ Text types: CHAR, VARCHAR, TEXT</t>
+  </si>
+  <si>
+    <t>✓ Learned when to use fixed vs variable length strings</t>
+  </si>
+  <si>
+    <t>✓ Understood precision and scale in decimals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">📅 Today (Day 4): We'll complete data types AND add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CONSTRAINTS to make our database bulletproof! 🛡️</t>
+  </si>
+  <si>
+    <t>✓ Installed PostgreSQL 18, pgAdmin 4, VS Code</t>
+  </si>
+  <si>
+    <t>═══════════════════════════════════════════════════════</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  TODAY'S AGENDA (2 Hours)</t>
+  </si>
+  <si>
+    <t>PART A: Completing Data Types (45 mins)</t>
+  </si>
+  <si>
+    <t>─────────────────────────────────────────</t>
+  </si>
+  <si>
+    <t>- Date/Time Types (DATE, TIMESTAMP, INTERVAL) - 10 mins</t>
+  </si>
+  <si>
+    <t>- Boolean Type - 5 mins</t>
+  </si>
+  <si>
+    <t>- Advanced Types (JSON, UUID, ARRAY) - 15 mins</t>
+  </si>
+  <si>
+    <t>- Other Types (MONEY, INET) - 5 mins</t>
+  </si>
+  <si>
+    <t>PART B: Constraints (45 mins)</t>
+  </si>
+  <si>
+    <t>- NOT NULL Constraint - 8 mins</t>
+  </si>
+  <si>
+    <t>- DEFAULT Constraint - 7 mins</t>
+  </si>
+  <si>
+    <t>- UNIQUE Constraint - 10 mins</t>
+  </si>
+  <si>
+    <t>- CHECK Constraint - 10 mins</t>
+  </si>
+  <si>
+    <t>- Hands-on Practice - 10 mins</t>
+  </si>
+  <si>
+    <t>PART C: Keys (30 mins)</t>
+  </si>
+  <si>
+    <t>- PRIMARY KEY (Single &amp; Composite) - 10 mins</t>
+  </si>
+  <si>
+    <t>- FOREIGN KEY - 10 mins</t>
+  </si>
+  <si>
+    <t>- Cascading Actions (CASCADE, RESTRICT, SET NULL) - 5 mins</t>
+  </si>
+  <si>
+    <t>- Adding/Dropping Constraints - 5 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Total: 120 minutes</t>
+  </si>
+  <si>
+    <t>Imagine you're building Zomato's delivery tracking system...</t>
+  </si>
+  <si>
+    <t>The customer orders biryani at 1:15 PM.</t>
+  </si>
+  <si>
+    <t>Restaurant confirms at 1:20 PM.</t>
+  </si>
+  <si>
+    <t>Delivery boy picks up at 1:45 PM.</t>
+  </si>
+  <si>
+    <t>Customer receives at 2:10 PM.</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>transaction_time</t>
+  </si>
+  <si>
+    <t>Now the customer complains: "My order was LATE!"</t>
+  </si>
+  <si>
+    <t>estimate_delivery</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>res_confirmed</t>
+  </si>
+  <si>
+    <t>pickup_done</t>
+  </si>
+  <si>
+    <t>cust_delivered</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>You need to check:</t>
+  </si>
+  <si>
+    <t>- Order placed: Just DATE? No! You need exact TIME! → TIMESTAMP</t>
+  </si>
+  <si>
+    <t>- Expected delivery: 45 minutes → INTERVAL</t>
+  </si>
+  <si>
+    <t>- Was it actually late? Compare TIMESTAMPs!</t>
+  </si>
+  <si>
+    <t>With proper date/time types:</t>
+  </si>
+  <si>
+    <t>order_time = '2025-01-15 13:15:00'</t>
+  </si>
+  <si>
+    <t>expected_delivery = order_time + INTERVAL '45 minutes'</t>
+  </si>
+  <si>
+    <t>actual_delivery = '2025-01-15 14:10:00'</t>
+  </si>
+  <si>
+    <t>Result: Delivered 10 minutes late!</t>
+  </si>
+  <si>
+    <t>Customer gets ₹50 coupon automatically! 🎉</t>
+  </si>
+  <si>
+    <t>📚 Definition</t>
+  </si>
+  <si>
+    <r>
+      <t>Technical Definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Date/Time types store temporal data. DATE stores calendar dates (year, month, day). TIMESTAMP stores both date and time. INTERVAL represents a duration of time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Layman's Terms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Think of your phone's calendar app! 📅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Just the date (like "15 January 2025")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Date + exact time (like "15 January 2025 at 3:30 PM")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INTERVAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Duration (like "3 days" or "2 hours 30 minutes")</t>
+    </r>
+  </si>
+  <si>
+    <t>BOOLEAN is a data type that stores logical values: TRUE, FALSE, or NULL (unknown).</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>preferences: {
+    "spice_level": "high",
+    "diet": "vegetarian", 
+    "cuisines": ["North Indian", "Chinese", "Italian"],
+    "allergies": ["peanuts"],
+    "budget": "medium"
+}</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Setting Boundaries</t>
+  </si>
+  <si>
+    <t>10 digit</t>
+  </si>
+  <si>
+    <t>starts with 9 8 7 6</t>
+  </si>
+  <si>
+    <t>9qwertyuio</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>aadhar_no</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +445,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,14 +502,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -83,6 +550,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>321263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322703</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50257</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC2E67C-45DE-A5FB-B83E-2D2FC1A41EA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1501560" y="4109040"/>
+            <a:ext cx="1440" cy="1440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC2E67C-45DE-A5FB-B83E-2D2FC1A41EA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1495440" y="4102920"/>
+              <a:ext cx="13680" cy="13680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251423</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325943</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484E523A-A01A-C002-3D21-42378E4E6377}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1431720" y="4115160"/>
+            <a:ext cx="74520" cy="378360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484E523A-A01A-C002-3D21-42378E4E6377}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1425600" y="4109040"/>
+              <a:ext cx="86760" cy="390600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36448</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F001772-1C39-0754-AF34-6ECEB31FC8FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4933440" y="5241960"/>
+            <a:ext cx="208440" cy="478800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F001772-1C39-0754-AF34-6ECEB31FC8FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4927320" y="5235840"/>
+              <a:ext cx="220680" cy="491040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105966</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127326</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A64B22-4F42-83D5-20BE-5A99E6BC0ACF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2933640" y="4377240"/>
+            <a:ext cx="5040" cy="13320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A64B22-4F42-83D5-20BE-5A99E6BC0ACF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2927520" y="4371120"/>
+              <a:ext cx="17280" cy="25560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2492</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23861501-0ACD-BF07-3BF2-278C09B35FD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2934000" y="4844160"/>
+            <a:ext cx="6840" cy="30600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23861501-0ACD-BF07-3BF2-278C09B35FD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2927880" y="4838040"/>
+              <a:ext cx="19080" cy="42840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>798623</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>572526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139710</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19D1B18-3454-4ED3-16C3-6449A96801B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1978920" y="5228640"/>
+            <a:ext cx="1426320" cy="189360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19D1B18-3454-4ED3-16C3-6449A96801B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1972800" y="5222520"/>
+              <a:ext cx="1438560" cy="201600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>823463</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557398</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166652</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1CA75C-0F59-517C-C5CD-2F2D91AA3435}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2003760" y="4976640"/>
+            <a:ext cx="2212560" cy="62280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1CA75C-0F59-517C-C5CD-2F2D91AA3435}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1997640" y="4970484"/>
+              <a:ext cx="2224800" cy="74591"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56654</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422038</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114395</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA5782C-147C-F4D4-7D86-F283784192A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2063160" y="4509720"/>
+            <a:ext cx="2017800" cy="70920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA5782C-147C-F4D4-7D86-F283784192A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057041" y="4503569"/>
+              <a:ext cx="2030038" cy="83222"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>169310</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401510</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75066AD1-0F47-49A9-C453-E9D52FA77FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4654440" y="5165280"/>
+            <a:ext cx="232200" cy="214560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75066AD1-0F47-49A9-C453-E9D52FA77FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4648320" y="5159160"/>
+              <a:ext cx="244440" cy="226800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>701046</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656398</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41996249-6F0E-0023-B66F-C867C5BF987B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3533760" y="5403240"/>
+            <a:ext cx="781560" cy="42120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41996249-6F0E-0023-B66F-C867C5BF987B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3527637" y="5397120"/>
+              <a:ext cx="793806" cy="54360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:30.635"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3 24575,'1'-2'0,"1"1"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:53.440"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 117 24575,'11'0'0,"-1"0"0,1 0 0,-1 0 0,8-2 0,31-7 0,-11 5 0,14-8 0,2 0 0,-3 5 0,26-12 0,-27 4 0,-15 7 0,0-8 0,-18 11 0,-9 1 0,1 1 0,-4 4 0,1-2 0,-6 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="845">1178 106 24575,'6'0'0,"0"0"0,0 0 0,5 0 0,-4 0 0,16 0 0,7-3 0,-1 0 0,2-3 0,12 0 0,-12-2 0,38 1 0,-40 3 0,5 1 0,-29 2 0,-2 0 0,0 0 0,1 1 0,-1 0 0,0 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1588">1736 19 22235,'16'0'0,"-3"0"1134,2 0-1134,0 0 394,7 0-394,10 0 200,-4 0-200,21 0 612,4 3-612,-3 1 0,0 2 0,-25-3 0,-5 0 0,-6-3 0,-3 0 0,-6 0 0,0 0 0,-1 1 0,0 1 0,-2-1 0,-1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:38.632"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">187 4 24575,'4'-1'0,"-3"0"0,-4 0 0,0 2 0,-2 2 0,3 1 0,-3 4 0,2 0 0,-2 0 0,1 1 0,1-5 0,0 3 0,1-3 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1 2 0,1 4 0,-3 3 0,4-2 0,-4 3 0,4-6 0,0-2 0,3 6 0,1-2 0,5 11 0,2 0 0,-2-3 0,-1-6 0,-4-6 0,0-3 0,3 3 0,-4 1 0,3 1 0,-3 1 0,0-2 0,0 8 0,-1-6 0,0 17 0,1-13 0,-5 8 0,-9-4 0,5-9 0,-9 9 0,4-7 0,-5 4 0,-5 4 0,7-9 0,0 0 0,7-8 0,1-1 0,-6-1 0,6-1 0,-7-1 0,9-2 0,-4-1 0,6-1 0,-1-1 0,0 0 0,3-2 0,-1 4 0,4 1 0,-1 3 0,6 1 0,0 1 0,7 2 0,-3 2 0,2 3 0,-5-5 0,-1 5 0,-4-4 0,3 3 0,-2 16 0,-1 13 0,-2 8 0,-1 3 0,-3 11 0,-2-16 0,-4 18 0,2-31 0,1-6 0,4-11 0,1-5 0,1 5 0,0-2 0,1 1 0,1-1 0,16 21 0,9-5 0,6 12 0,3-16 0,-21-12 0,-4-6 0,-8-3 0,-1-2 0,1 1 0,-3-2 0,1 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:40.601"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 72 24575,'1'-5'0,"11"-6"0,4 0 0,10-7 0,-3 5 0,-5 2 0,-1 9 0,-2 9 0,8 22 0,-4 24 0,-4 3 0,-10 14 0,-8-14 0,-7 15 0,-1-21 0,-6 4 0,6-27 0,-1 0 0,4-9 0,-2-3 0,6-6 0,0 1 0,2-1 0,5 5 0,12 1 0,-7-3 0,25-4 0,29-14 0,-12-8 0,5-7 0,5-8 0,-2-2 0,-11 4 0,-7-2 0,5-24 0,-41 42 0,-5 6 0,-5 12 0,-27 42 0,11-14 0,-18 30 0,20-19 0,3 1 0,-11 31 0,10-16 0,1 4 0,1-6 0,0-4 0,-5 27 0,0-8 0,7-39 0,10-21 0,-4 1 0,-11 8 0,-9 5 0,-5 3 0,-28 3 0,36-22 0,-19 1 0,37-12 0,1-2 0,5 0 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:42.428"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 0 24575,'-7'19'0,"4"-7"0,0-7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:45.425"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'8'0'0,"-1"0"0,-6 1 0,1 1 0,-2 1 0,0 0 0,-4 31 0,3-25 0,-2 23 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:47.804"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 401 24575,'11'-2'0,"45"4"0,11 3 0,-11-1 0,5 0 0,13 0 0,0 1-621,-18-3 1,4 0 620,17 1 0,10-1 0,-9 1 151,-18-1 1,3 1-152,24-1 0,20 1 0,1 1 0,-18-1 0,-17 2 0,-2-1 0,20 0 0,12-1 0,-18-1 0,5 2 0,-20-7 0,-21 1 0,-23-2 0,-18 1 938,0 0-938,9 1 0,-7-1 0,6 3 0,16-1 0,21 0 0,10 2 0,1-1 0,2 0 0,7 0 0,0 0 0,-10 0 0,-8 0 0,-10 0 0,8 0 0,-35-2 0,-3 2 0,-14-3 0,1 1 0,-2 2 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404">2761 169 24575,'4'-2'0,"1"1"0,1 20 0,0 0 0,-2 4 0,-1-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="693">2793 467 24575,'8'-2'0,"-1"1"0,-6 1 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2124">3721 3 24575,'-7'-1'0,"0"0"0,-4 0 0,4 1 0,-2 0 0,2 0 0,1 4 0,-1 0 0,2 3 0,-1 3 0,2-2 0,-1 5 0,3-2 0,-2 5 0,-2 79 0,9-32 0,-4-8 0,3 0 0,15 9 0,-8-41 0,2 11 0,-8-27 0,0 1 0,-1-2 0,1 3 0,-3-3 0,3 3 0,-1-3 0,0-2 0,-1 1 0,0-4 0,1 1 0,31-6 0,-10 1 0,53-11 0,-42 6 0,28-6 0,-46 11 0,5-2 0,-18 4 0,-1 0 0,-1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:44.833"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'13'0'0,"-3"0"0,20 0 0,3 2 0,6 2 0,24 2-6784,-4 4 6784,40-2-2269,-35 3 1,8 0 2268,13-2 0,10-1 0,0 1-267,-11 0 0,0 0 0,4 0 267,-5-3 0,5 0 0,0-2 0,-5 1-16,6-1 1,-5 0-1,-5-1 16,9-2 0,-9-1 2058,-17 2 1,-11-1-2059,-20-2 6156,-27 1-6156,0-2 1780,-1 1-1780,15-2 0,-8 1 0,11-2 116,35-4-116,-15-1 0,36-6 0,-45 4 0,-8 5 0,-20 3 0,-3 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834">2548 45 24575,'8'-1'0,"-4"2"0,0 1 0,-3 1 0,0 0 0,-1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1689">3283 172 24575,'6'-2'0,"5"1"0,10 1 0,53 0 0,-27 0 0,8 0 0,19 0 0,11 0 0,-3 0 0,14-2 0,1 0 0,-19 0 0,4 1 0,3-1 0,16 0 0,3 1 0,-11-1 0,-15-2 0,1 0 0,-5 2 0,12 1 0,-2-1 0,-12-1 0,-1-3 0,-7-1 0,9 2 0,-5 0 0,17-6 0,-26 3 0,4 0 0,-7 0 0,2 0 0,16-2 0,2 0 0,-2 0 0,-3 1 0,26 3 0,2-5 0,-35 11 0,-36-1 0,-15-1 0,-10 3 0,0-2 0,-3 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:41.932"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 8 24575,'4'-2'0,"50"8"0,-4 3 0,-2-3 0,8 0 0,28 2 0,5 0 0,-6-1 0,4 0-1283,-14-1 0,4 0 0,2 0 1283,13 0 0,2 0 0,-9 0 0,-6 1 0,-2-1 0,1-1 0,5-1 0,-7 0-197,-6 0 0,-5 1 197,3 1 0,1 0 470,0 0 0,-5 0-470,5 6 0,-23-6 0,-30-3 0,-14-2 1884,3-1-1884,-1 3 1383,4-1-1383,6 2 36,-1-1-36,3 0 0,-6-2 0,-7-1 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="831">2306 79 24575,'3'0'0,"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1606">2870 96 24575,'26'0'0,"35"-1"0,21-1 0,-5 1 0,11 1 0,5 0 0,-2 0-944,-2-1 1,0 0 0,3 0 0,6 0 943,-7 0 0,8 1 0,4 0 0,0 1 0,-5-1 0,-8 0 0,1 0 0,-7 0 0,-2 0 0,0 0 0,5 0 0,1 0 0,-4 0 0,-12 0 0,2 0 0,-16 0 1173,-7-2-1173,-47 1 617,2-4-617,3-1 0,5-3 0,0 3 1983,8-7-1983,-5 8 0,35-7 0,8 6 0,-10 1 0,0-1 0,10 1 0,-7-1 0,-52 6 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-28T16:48:51.690"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 64 24575,'44'-9'0,"0"1"0,24 0 0,-4 1 0,-2-1 0,1 1 0,12 1 0,21-4 0,-34 10 0,-42 0 0,19 0 0,-35 0 0,-3 0 0,0 1 0,-2 3 0,0 0 0,0 3 0,-7 21 0,-4 14 0,-10 28 0,-8 14 0,11-28 0,0-7 0,13-28 0,2-11 0,0 6 0,3-9 0,0 6 0,-1-5 0,-1 15 0,1-12 0,-1 11 0,2-10 0,-1 0 0,1-5 0,0 0 0,1-2 0,0-1 0,0 1 0,0-2 0,0 0 0,-1-2 0,-1 1 0,-5-2 0,-33 5 0,8-1 0,-28 8 0,5-2 0,23-1 0,-5-1 0,29-6 0,3 1 0,0-3 0,2 3 0,0-3 0,2 1 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +1813,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46857EFE-986D-F84B-983E-4B3B34793B3B}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A93E3A4-9545-544A-9ED3-43E7368D6E31}">
+  <dimension ref="B2:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="239" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="84.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15504507-6BF0-814C-B6CB-F6F8925ED29E}">
+  <dimension ref="B3:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="214" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54F92-7AAB-DE41-BA6B-49258BAC57C2}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="400" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9F3E8B-6655-5044-B8CA-C37107DE2DAC}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="269" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:I18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F8D53-D9D1-4C49-9911-EC61AEA0E61D}">
+  <dimension ref="B2:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="297" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>